--- a/data/evidence/data_procesor/qualityReportIDBTest_September.xlsx
+++ b/data/evidence/data_procesor/qualityReportIDBTest_September.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lgcns-my.sharepoint.com/personal/mahfudin_lgsinarmas_com/Documents/QA IDB/Report/Quality Report/Monthly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Quality_Report_IDB\data\evidence\data_procesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{1AD6F95C-74A3-473E-B3EC-A1DA087DF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B02EAB-FE2C-4EEE-84EA-70F5FC268B1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5A1A39-B88A-4FF7-A564-7FC6B24B83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="10" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="SI" sheetId="13" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>Quality Rate</t>
   </si>
   <si>
-    <t>Function Fulfilment Evaluation</t>
-  </si>
-  <si>
     <t>Bug Density</t>
   </si>
   <si>
@@ -628,19 +625,7 @@
     <t>Metric Definitions and Impact on Project Types</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Fulfillment: </t>
-  </si>
-  <si>
-    <t>Measures how much of the requested functions have been completed relative to the total planned functions for the project or component.</t>
-  </si>
-  <si>
-    <t>Number of bugs found relative to the size of the project/component - critical for both new development (SI) and ongoing maintenance (SM).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bug Correction Rate: </t>
-  </si>
-  <si>
-    <t>Percentage of bugs fixed within the evaluated period, indicating responsiveness and maintenance quality.</t>
   </si>
   <si>
     <t xml:space="preserve">Jeremy Marvin Christian, Willy Candra Sugianto </t>
@@ -688,6 +673,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 2025-09-01 ~ 2025-10-03</t>
+  </si>
+  <si>
+    <t>Productivity Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity Rate: </t>
+  </si>
+  <si>
+    <t>Measures the amount of functional work completed compared to the total planned scope for the project or component.</t>
+  </si>
+  <si>
+    <t>Indicates the number of defects found relative to the size or complexity of the project/component - a critical metric for both new development (SI) and ongoing maintenance (SM).</t>
+  </si>
+  <si>
+    <t>Represents the percentage of identified defects that have been resolved within the evaluation period, reflecting responsiveness and the overall quality of maintenance or development activities.</t>
   </si>
 </sst>
 </file>
@@ -1376,6 +1376,72 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1405,72 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2023,588 +2023,588 @@
     <col min="19" max="16384" width="9.3046875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="30" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.6">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="124" t="s">
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="24.9" x14ac:dyDescent="0.6">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="128" t="s">
+      <c r="M1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="129" t="s">
+      <c r="O1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="R1" s="121" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="138">
+      <c r="K2" s="128">
         <v>10</v>
       </c>
-      <c r="L2" s="138">
+      <c r="L2" s="128">
         <v>10</v>
       </c>
-      <c r="M2" s="138">
+      <c r="M2" s="128">
         <v>21</v>
       </c>
-      <c r="N2" s="138">
+      <c r="N2" s="128">
         <v>21</v>
       </c>
-      <c r="O2" s="139">
+      <c r="O2" s="129">
         <f t="shared" ref="O2:Q3" si="0">L2/K2</f>
         <v>1</v>
       </c>
-      <c r="P2" s="140">
+      <c r="P2" s="130">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="Q2" s="139">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R2" s="132" t="s">
+      <c r="Q2" s="129">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R2" s="122" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="138">
+      <c r="K3" s="128">
         <v>8</v>
       </c>
-      <c r="L3" s="138">
+      <c r="L3" s="128">
         <v>8</v>
       </c>
-      <c r="M3" s="138">
+      <c r="M3" s="128">
         <v>8</v>
       </c>
-      <c r="N3" s="138">
+      <c r="N3" s="128">
         <v>8</v>
       </c>
-      <c r="O3" s="139">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P3" s="140">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="139">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R3" s="132" t="s">
+      <c r="O3" s="129">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="130">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="129">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="122" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133" t="s">
+      <c r="A4" s="122"/>
+      <c r="B4" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="138">
+      <c r="K4" s="128">
         <v>20</v>
       </c>
-      <c r="L4" s="138">
+      <c r="L4" s="128">
         <v>18</v>
       </c>
-      <c r="M4" s="138">
+      <c r="M4" s="128">
         <v>12</v>
       </c>
-      <c r="N4" s="138">
+      <c r="N4" s="128">
         <v>10</v>
       </c>
-      <c r="O4" s="139">
+      <c r="O4" s="129">
         <f t="shared" ref="O4:O7" si="1">L4/K4</f>
         <v>0.9</v>
       </c>
-      <c r="P4" s="140">
+      <c r="P4" s="130">
         <f t="shared" ref="P4:P7" si="2">M4/L4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q4" s="139">
+      <c r="Q4" s="129">
         <f t="shared" ref="Q4:Q7" si="3">N4/M4</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R4" s="132" t="s">
+      <c r="R4" s="122" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="136" t="s">
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="138">
+      <c r="K5" s="128">
         <v>20</v>
       </c>
-      <c r="L5" s="138">
+      <c r="L5" s="128">
         <v>16</v>
       </c>
-      <c r="M5" s="138">
+      <c r="M5" s="128">
         <v>22</v>
       </c>
-      <c r="N5" s="138">
+      <c r="N5" s="128">
         <v>22</v>
       </c>
-      <c r="O5" s="139">
+      <c r="O5" s="129">
         <f t="shared" ref="O5:O6" si="4">L5/K5</f>
         <v>0.8</v>
       </c>
-      <c r="P5" s="140">
+      <c r="P5" s="130">
         <f t="shared" ref="P5:P6" si="5">M5/L5</f>
         <v>1.375</v>
       </c>
-      <c r="Q5" s="139">
+      <c r="Q5" s="129">
         <f t="shared" ref="Q5:Q6" si="6">N5/M5</f>
         <v>1</v>
       </c>
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="122" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="136" t="s">
+      <c r="I6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="138">
+      <c r="K6" s="128">
         <v>27</v>
       </c>
-      <c r="L6" s="138">
+      <c r="L6" s="128">
         <v>17</v>
       </c>
-      <c r="M6" s="138">
+      <c r="M6" s="128">
         <v>28</v>
       </c>
-      <c r="N6" s="138">
+      <c r="N6" s="128">
         <v>24</v>
       </c>
-      <c r="O6" s="139">
+      <c r="O6" s="129">
         <f t="shared" si="4"/>
         <v>0.62962962962962965</v>
       </c>
-      <c r="P6" s="140">
+      <c r="P6" s="130">
         <f t="shared" si="5"/>
         <v>1.6470588235294117</v>
       </c>
-      <c r="Q6" s="139">
+      <c r="Q6" s="129">
         <f t="shared" si="6"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="R6" s="141" t="s">
+      <c r="R6" s="131" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="24.9" x14ac:dyDescent="0.6">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133" t="s">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="136" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="128">
         <v>17</v>
       </c>
-      <c r="L7" s="138">
+      <c r="L7" s="128">
         <v>17</v>
       </c>
-      <c r="M7" s="138">
+      <c r="M7" s="128">
         <v>31</v>
       </c>
-      <c r="N7" s="138">
+      <c r="N7" s="128">
         <v>31</v>
       </c>
-      <c r="O7" s="139">
+      <c r="O7" s="129">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P7" s="140">
+      <c r="P7" s="130">
         <f t="shared" si="2"/>
         <v>1.8235294117647058</v>
       </c>
-      <c r="Q7" s="139">
+      <c r="Q7" s="129">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R7" s="141" t="s">
+      <c r="R7" s="131" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="32" customFormat="1" ht="74.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A8" s="138"/>
-      <c r="B8" s="133" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="136" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="138" t="s">
+      <c r="I8" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="138">
+      <c r="K8" s="128">
         <v>265</v>
       </c>
-      <c r="L8" s="138">
+      <c r="L8" s="128">
         <v>265</v>
       </c>
-      <c r="M8" s="138">
+      <c r="M8" s="128">
         <v>41</v>
       </c>
-      <c r="N8" s="138">
+      <c r="N8" s="128">
         <v>41</v>
       </c>
-      <c r="O8" s="139">
+      <c r="O8" s="129">
         <f t="shared" ref="O8:O9" si="7">L8/K8</f>
         <v>1</v>
       </c>
-      <c r="P8" s="140">
+      <c r="P8" s="130">
         <f t="shared" ref="P8:P9" si="8">M8/L8</f>
         <v>0.15471698113207547</v>
       </c>
-      <c r="Q8" s="139">
+      <c r="Q8" s="129">
         <f t="shared" ref="Q8:Q9" si="9">N8/M8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="142" t="s">
+      <c r="R8" s="132" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="87" x14ac:dyDescent="0.4">
-      <c r="A9" s="138"/>
-      <c r="B9" s="133" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="136" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="138" t="s">
+      <c r="I9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="138">
+      <c r="K9" s="128">
         <v>855</v>
       </c>
-      <c r="L9" s="138">
+      <c r="L9" s="128">
         <v>855</v>
       </c>
-      <c r="M9" s="138">
+      <c r="M9" s="128">
         <v>28</v>
       </c>
-      <c r="N9" s="138">
+      <c r="N9" s="128">
         <v>28</v>
       </c>
-      <c r="O9" s="139">
+      <c r="O9" s="129">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P9" s="140">
+      <c r="P9" s="130">
         <f t="shared" si="8"/>
         <v>3.2748538011695909E-2</v>
       </c>
-      <c r="Q9" s="139">
+      <c r="Q9" s="129">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="R9" s="142" t="s">
+      <c r="R9" s="132" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="62.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="138"/>
-      <c r="B10" s="133" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="136" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="137" t="s">
+      <c r="J10" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="128">
         <v>730</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="128">
         <v>730</v>
       </c>
-      <c r="M10" s="138">
-        <v>1</v>
-      </c>
-      <c r="N10" s="138">
-        <v>1</v>
-      </c>
-      <c r="O10" s="139">
+      <c r="M10" s="128">
+        <v>1</v>
+      </c>
+      <c r="N10" s="128">
+        <v>1</v>
+      </c>
+      <c r="O10" s="129">
         <f t="shared" ref="O10" si="10">L10/K10</f>
         <v>1</v>
       </c>
-      <c r="P10" s="140">
+      <c r="P10" s="130">
         <f t="shared" ref="P10" si="11">M10/L10</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="Q10" s="139">
+      <c r="Q10" s="129">
         <f t="shared" ref="Q10" si="12">N10/M10</f>
         <v>1</v>
       </c>
-      <c r="R10" s="142" t="s">
+      <c r="R10" s="132" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="138"/>
-      <c r="B11" s="133" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="136" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136" t="s">
+      <c r="G11" s="126"/>
+      <c r="H11" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="138" t="s">
+      <c r="I11" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="138">
+      <c r="J11" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="128">
         <v>215</v>
       </c>
-      <c r="L11" s="138">
+      <c r="L11" s="128">
         <v>241</v>
       </c>
-      <c r="M11" s="138">
-        <v>0</v>
-      </c>
-      <c r="N11" s="138">
-        <v>0</v>
-      </c>
-      <c r="O11" s="139">
+      <c r="M11" s="128">
+        <v>0</v>
+      </c>
+      <c r="N11" s="128">
+        <v>0</v>
+      </c>
+      <c r="O11" s="129">
         <f t="shared" ref="O11" si="13">L11/K11</f>
         <v>1.1209302325581396</v>
       </c>
-      <c r="P11" s="140">
+      <c r="P11" s="130">
         <f t="shared" ref="P11" si="14">M11/L11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="139" t="e">
+      <c r="Q11" s="129" t="e">
         <f t="shared" ref="Q11" si="15">N11/M11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="143" t="s">
-        <v>158</v>
+      <c r="R11" s="133" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
@@ -2657,7 +2657,7 @@
       <c r="G14" s="80"/>
       <c r="H14" s="80"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="137"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="82"/>
       <c r="L14" s="82"/>
       <c r="M14" s="82"/>
@@ -2758,11 +2758,11 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2910,7 +2910,7 @@
         <v>46022</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H3" s="59">
         <v>11</v>
@@ -3231,7 +3231,7 @@
       <c r="E9" s="63"/>
       <c r="F9" s="63"/>
       <c r="G9" s="65" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H9" s="63">
         <v>9</v>
@@ -3283,8 +3283,8 @@
       <c r="G10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="122" t="s">
-        <v>157</v>
+      <c r="H10" s="112" t="s">
+        <v>152</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>59</v>
@@ -3568,8 +3568,8 @@
   </sheetPr>
   <dimension ref="B3:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="19.3" x14ac:dyDescent="0.65"/>
@@ -3587,31 +3587,31 @@
       <c r="B3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
     </row>
     <row r="4" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="2:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B5" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="8" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B8" s="105" t="s">
@@ -3619,68 +3619,68 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="138" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="138"/>
     </row>
     <row r="10" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="117"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="E10" s="98" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="D11" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="119"/>
+      <c r="E11" s="141"/>
     </row>
     <row r="12" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="D12" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="143"/>
     </row>
     <row r="13" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B13" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="D13" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="120" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="121"/>
+      <c r="E13" s="143"/>
     </row>
     <row r="17" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B17" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
@@ -3688,35 +3688,35 @@
     </row>
     <row r="18" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B18" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="115" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
+        <v>156</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
       <c r="F18" s="103"/>
     </row>
     <row r="19" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B19" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="103"/>
     </row>
     <row r="20" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B20" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
+        <v>149</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="103"/>
     </row>
   </sheetData>
@@ -4423,7 +4423,7 @@
         <v>46022</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H3" s="16">
         <v>11</v>
@@ -4989,7 +4989,7 @@
         <v>46022</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H3" s="16">
         <v>11</v>
@@ -5449,7 +5449,7 @@
         <v>46022</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H3" s="16">
         <v>11</v>
@@ -6032,7 +6032,7 @@
         <v>46022</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="16">
         <v>11</v>
@@ -6636,7 +6636,7 @@
         <v>46022</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="16">
         <v>11</v>
@@ -7204,7 +7204,7 @@
         <v>46022</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="16">
         <v>11</v>
@@ -7849,7 +7849,7 @@
         <v>46022</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="59">
         <v>11</v>
